--- a/StudentData/Tutorials/Unit4/4.2.2/monthly_operating_costs.xlsx
+++ b/StudentData/Tutorials/Unit4/4.2.2/monthly_operating_costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Tutorial Data/Unit 3/Tutorial 3.3.8/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Tutorials/Unit4/4.2.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{EC231B21-FCE3-4AD6-BCBE-12A9799D85D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F50751C4-5212-4585-8D4F-6F7B7A5D8710}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BF198095-5044-4859-809D-23D8B1231AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="static data" sheetId="2" r:id="rId1"/>
@@ -36,37 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Monthly_Operating_Costs</t>
-  </si>
-  <si>
-    <t>hypothesized mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sample size </t>
-  </si>
-  <si>
-    <t>sample mean (x-bar)</t>
-  </si>
-  <si>
-    <t>sample standard deviation (s)</t>
-  </si>
-  <si>
-    <t>standard error</t>
-  </si>
-  <si>
-    <t>t-statistic</t>
-  </si>
-  <si>
-    <t>p-value (left-tailed test)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,541 +389,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA267676-0B9B-4DAB-B730-31AB7D11CF56}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.84375" customWidth="1"/>
+    <col min="3" max="3" width="26.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>259599.62</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>214891.3</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>249488.49</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>164965.98000000001</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>275989.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>329037.87</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>281426.90999999997</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>145090.51999999999</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>150181.78</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>118452.14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>157071</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>200554.49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>36963.089999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>150125.91</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>151031.51</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>266320.21000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>197565.8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>317057.40000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>281305.17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>184731.48</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>225021.33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>65954.78</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>242302.07</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>181161.94</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>289620.65000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>48114.09</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>250367.68</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>262527.74</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>319002.65999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>222383.07</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>173390.62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>230678.59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>307053.56</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>256761.88</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>245772.51</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>113412.2</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>309235.78000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>76099.77</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>178897.07</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>92575.7</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>244551.76</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>89651.36</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>104645.94</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>298292.81</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>162271.21</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>187739.53</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>92145.22</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>258653.4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>113875.02</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>44622.61</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>192673.39</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>136953.70000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>211645.79</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>180754.71</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>265305.28000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>213956.78</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>69073.69</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>192046.85</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>63540.82</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>142922.28</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>191505.72</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>258827.51</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>43783.34</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>316077.3</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>204283.01</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>185297.48</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>267785.01</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>105931.33</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>244752.6</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>294344.58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>236320.06</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>107148.2</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>317393.07</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>207942.76</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>159007.54</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>128884.64</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>35409.599999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>299415.09999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>81302.06</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>158412.45000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>252091.29</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>250360.65</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>102018.54</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>177463.15</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>126354.17</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>134567.70000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>216457.09</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>149163.85999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>139981.60999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>152378.41</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>216516.45</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>239953.17</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>325880.61</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>178514.74</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>62305.95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>235037.57</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>88329.69</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>203799.4</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>152234.42000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>392712.96000000002</v>
       </c>
@@ -955,15 +913,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
@@ -975,6 +924,15 @@
     <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1242,13 +1200,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4364AC42-F9D9-4CDB-B0DF-E19A2D017869}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F4E3C7-663E-4741-80B0-44D3A38BC9B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77F4E3C7-663E-4741-80B0-44D3A38BC9B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4364AC42-F9D9-4CDB-B0DF-E19A2D017869}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6DB8C3-7491-45F7-9925-B93EA847E2B2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A6DB8C3-7491-45F7-9925-B93EA847E2B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>